--- a/public/excel_template/tutupbuka_template.xlsx
+++ b/public/excel_template/tutupbuka_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F345C4-38F9-41EB-8BAE-F01C9EFEC4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B471745-60F8-4051-945B-AC9CD5DEE545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{8D6FC8C7-B001-4DBD-81D4-156A2D4714FA}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{8D6FC8C7-B001-4DBD-81D4-156A2D4714FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>tanggal_tutup</t>
   </si>
@@ -39,23 +39,17 @@
     <t>username_anak</t>
   </si>
   <si>
-    <t>anak1</t>
-  </si>
-  <si>
     <t>apps1</t>
   </si>
   <si>
-    <t>apps2</t>
-  </si>
-  <si>
-    <t>anak2</t>
+    <t>username1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +67,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF252422"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF252422"/>
       <name val="Arial"/>
@@ -99,11 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D67D45F-CC13-418A-839A-9A4C48BC901D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,16 +435,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -454,24 +456,10 @@
         <v>44321</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44260</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44352</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
